--- a/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
+++ b/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Product Proposal High Complexity Features</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Phong</t>
   </si>
   <si>
@@ -67,10 +64,16 @@
     <t>BRD Glossary</t>
   </si>
   <si>
-    <t>NO</t>
+    <t xml:space="preserve">Worked on the product proposal's high complexity features </t>
+  </si>
+  <si>
+    <t>Environment Setup</t>
   </si>
   <si>
     <t>Jack</t>
+  </si>
+  <si>
+    <t>Submitting proposal tonight, while waiting for feedback setup enviorment</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -99,8 +102,12 @@
       <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +120,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border/>
@@ -172,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -200,6 +213,12 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +436,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="16.63"/>
+    <col customWidth="1" min="1" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="46.0"/>
     <col customWidth="1" min="4" max="4" width="56.75"/>
     <col customWidth="1" min="5" max="5" width="16.63"/>
     <col customWidth="1" min="6" max="6" width="60.25"/>
@@ -457,73 +477,60 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7">
@@ -533,15 +540,25 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -550,23 +567,42 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12">
@@ -584,7 +620,7 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -598,18 +634,18 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17">
@@ -627,7 +663,7 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -641,18 +677,18 @@
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22">
@@ -670,7 +706,7 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -684,18 +720,18 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="10"/>
     </row>
   </sheetData>

--- a/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
+++ b/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>Submitting proposal tonight, while waiting for feedback setup enviorment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Environement Setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on BRD feature templates </t>
+  </si>
+  <si>
+    <t>Work on BRD high complexity features</t>
+  </si>
+  <si>
+    <t>Expecting feedback tonight 9/24</t>
+  </si>
+  <si>
+    <t>Work on BRD Scope, BRD Medium Complexity Features</t>
+  </si>
+  <si>
+    <t>Completed Environment Setup</t>
+  </si>
+  <si>
+    <t>Work on BRD Glossary</t>
   </si>
 </sst>
 </file>
@@ -612,8 +633,12 @@
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
@@ -622,6 +647,12 @@
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14">
@@ -629,13 +660,27 @@
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16">
@@ -643,8 +688,12 @@
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="10"/>
     </row>

--- a/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
+++ b/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>Work on BRD Glossary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the BRD feature template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polished the product proposal features </t>
+  </si>
+  <si>
+    <t>Worked on the BRD high complexity features</t>
+  </si>
+  <si>
+    <t>Finished up Product Proposal based on feedback</t>
+  </si>
+  <si>
+    <t>Worked on BRD Scope, BRD Medium Complexity Features</t>
+  </si>
+  <si>
+    <t>Worked on BRD Glossary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on BRD features </t>
   </si>
 </sst>
 </file>
@@ -704,8 +725,12 @@
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
@@ -714,6 +739,12 @@
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19">
@@ -721,6 +752,12 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20">
@@ -728,6 +765,12 @@
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21">
@@ -735,8 +778,12 @@
       <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="10"/>
     </row>

--- a/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
+++ b/Scrum Artifacts/Standup Meeting Tracker Sprint1 9_22-9_26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t xml:space="preserve">Work on BRD features </t>
+  </si>
+  <si>
+    <t>Finished working on Product Proposal features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on BRD high complexity features breakdown </t>
+  </si>
+  <si>
+    <t>Finished up Product Proposal</t>
+  </si>
+  <si>
+    <t>Help Group with BRD, nothing currently assigned</t>
+  </si>
+  <si>
+    <t>Will address inefficent work allocation in retrospective / next sprint</t>
+  </si>
+  <si>
+    <t>continue to work on BRD Scope, BRD Medium Complexity Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue to Work on BRD features </t>
   </si>
 </sst>
 </file>
@@ -794,8 +815,12 @@
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
     </row>
@@ -804,6 +829,12 @@
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24">
@@ -811,13 +842,27 @@
       <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26">
@@ -825,8 +870,12 @@
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="15"/>
       <c r="F26" s="10"/>
     </row>
